--- a/Base de datos/MatrizDeTransicionesBD.xlsx
+++ b/Base de datos/MatrizDeTransicionesBD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Escuela\6 sem\ALscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programacion\C#\ALscript-1.0\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA7D3E-6260-4D9E-ABB7-F300B0BF9804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152ACDF-0E60-4499-8191-4FBD6B4D373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{289C3FF2-1825-47B9-A7C9-E57E135FC14E}"/>
   </bookViews>
@@ -3850,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC32ADF-F58C-48F9-A000-9C1785C8F78C}">
   <dimension ref="A1:DA243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48197,7 +48197,7 @@
         <v>165</v>
       </c>
       <c r="CM140" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CN140" s="9" t="s">
         <v>165</v>

--- a/Base de datos/MatrizDeTransicionesBD.xlsx
+++ b/Base de datos/MatrizDeTransicionesBD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programacion\C#\ALscript-1.0\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152ACDF-0E60-4499-8191-4FBD6B4D373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B714D33-8672-44A0-8CCC-5A2778387CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{289C3FF2-1825-47B9-A7C9-E57E135FC14E}"/>
   </bookViews>
@@ -3850,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC32ADF-F58C-48F9-A000-9C1785C8F78C}">
   <dimension ref="A1:DA243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:XFD146"/>
+    <sheetView tabSelected="1" topLeftCell="AN109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43540,7 +43540,7 @@
         <v>9</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="S126" s="9" t="s">
         <v>9</v>
@@ -43857,7 +43857,7 @@
         <v>9</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="S127" s="9" t="s">
         <v>9</v>

--- a/Base de datos/MatrizDeTransicionesBD.xlsx
+++ b/Base de datos/MatrizDeTransicionesBD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programacion\C#\ALscript-1.0\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B714D33-8672-44A0-8CCC-5A2778387CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6650D-8938-482A-A2CB-18690A17F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{289C3FF2-1825-47B9-A7C9-E57E135FC14E}"/>
   </bookViews>
@@ -3850,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC32ADF-F58C-48F9-A000-9C1785C8F78C}">
   <dimension ref="A1:DA243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51734,7 +51734,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>21</v>
@@ -52051,7 +52051,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>21</v>

--- a/Base de datos/MatrizDeTransicionesBD.xlsx
+++ b/Base de datos/MatrizDeTransicionesBD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programacion\C#\ALscript-1.0\Base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\source\repos\ALscript-1.0\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6650D-8938-482A-A2CB-18690A17F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2CC23-A1C0-4B59-9E27-E761F6A2EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{289C3FF2-1825-47B9-A7C9-E57E135FC14E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{289C3FF2-1825-47B9-A7C9-E57E135FC14E}"/>
   </bookViews>
   <sheets>
     <sheet name="matriz" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25188" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26330" uniqueCount="435">
   <si>
     <t>FDC</t>
   </si>
@@ -1307,6 +1305,39 @@
   <si>
     <t>Cllar</t>
   </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>PRINI</t>
+  </si>
+  <si>
+    <t>PRFIN</t>
+  </si>
 </sst>
 </file>
 
@@ -1475,7 +1506,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3386,6 +3417,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.249977111117893"/>
@@ -3404,13 +3442,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3439,7 +3470,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{357DF5DF-BC7D-4F20-8759-57BB0149AAB1}" name="Tabla2" displayName="Tabla2" ref="A1:DA243" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{357DF5DF-BC7D-4F20-8759-57BB0149AAB1}" name="Tabla2" displayName="Tabla2" ref="A1:DA254" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowBorderDxfId="106" tableBorderDxfId="107" totalsRowBorderDxfId="105">
   <tableColumns count="105">
     <tableColumn id="1" xr3:uid="{8B6C07F4-80E6-4D05-9E35-413469B14625}" name="Estado" dataDxfId="104"/>
     <tableColumn id="2" xr3:uid="{34D1D9DC-1E29-4A2C-B611-451D923FBEB4}" name="FDC" dataDxfId="103"/>
@@ -3848,10 +3879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC32ADF-F58C-48F9-A000-9C1785C8F78C}">
-  <dimension ref="A1:DA243"/>
+  <dimension ref="A1:DA254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B249" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,316 +4217,316 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+      <c r="W2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD2" s="9" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>250</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>243</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BG2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BJ2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BK2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BL2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BM2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BN2" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BO2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BP2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="BQ2" s="9" t="s">
+      <c r="BQ2" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="BR2" s="9" t="s">
+      <c r="BR2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BS2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="BT2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BU2" s="9" t="s">
+      <c r="BT2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BV2" s="9" t="s">
+      <c r="BV2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="BW2" s="9" t="s">
+      <c r="BW2" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="BY2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="BY2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="CA2" s="9" t="s">
+      <c r="CA2" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="CB2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CC2" s="9" t="s">
+      <c r="CB2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CC2" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="CD2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE2" s="9" t="s">
+      <c r="CD2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="CF2" s="9" t="s">
+      <c r="CF2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="CG2" s="9" t="s">
+      <c r="CG2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="CH2" s="9" t="s">
+      <c r="CH2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="CI2" s="9" t="s">
+      <c r="CI2" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="CJ2" s="9" t="s">
+      <c r="CJ2" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="CK2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CL2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CM2" s="9" t="s">
+      <c r="CK2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CL2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CM2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="CN2" s="9" t="s">
+      <c r="CN2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="CO2" s="9" t="s">
+      <c r="CO2" s="11" t="s">
         <v>199</v>
       </c>
       <c r="CP2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CQ2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CR2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CU2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CY2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CZ2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA2" s="9" t="s">
+      <c r="CQ2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA2" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4500,316 +4534,316 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CN3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CO3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CP3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CR3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CU3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CY3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CZ3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA3" s="9" t="s">
+      <c r="S3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA3" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4817,316 +4851,316 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CA4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CI4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CO4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CP4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CR4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CU4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CY4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CZ4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA4" s="9" t="s">
+      <c r="W4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA4" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5134,316 +5168,316 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CA5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CI5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CN5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CO5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CP5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CR5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CU5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CY5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CZ5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA5" s="9" t="s">
+      <c r="S5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA5" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5451,316 +5485,316 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CA6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CI6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CN6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CO6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CP6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CR6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CU6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CY6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CZ6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA6" s="9" t="s">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA6" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -67586,7 +67620,7 @@
       <c r="B202" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="9" t="s">
         <v>286</v>
       </c>
       <c r="D202" s="9" t="s">
@@ -80891,6 +80925,3493 @@
       </c>
       <c r="DA243" s="10" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="244" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ244" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AR244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ244" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA244" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL245" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ245" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA245" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="246" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF246" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ246" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA246" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="247" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL247" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ247" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA247" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="248" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR248" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA248" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="249" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ249" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA249" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="250" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ250" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA250" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="251" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL251" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA251" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="252" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ252" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AR252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ252" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA252" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="253" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ253" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA253" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="254" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA254" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -80900,6 +84421,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
